--- a/artfynd/A 16493-2025 artfynd.xlsx
+++ b/artfynd/A 16493-2025 artfynd.xlsx
@@ -1004,7 +1004,7 @@
         <v>124705813</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
